--- a/src/main/resources/Performance_Par_Sort.xlsx
+++ b/src/main/resources/Performance_Par_Sort.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enhaoliu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/XuLiu/SES/Spring2023/INFO6205_Algo/HW/Info6205-Program-Structure-and-Algorithms/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88CAE6F-14E8-EC42-91A0-109C1E87F328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50819170-65B5-E545-A030-B6A33CAA0239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18680" activeTab="1" xr2:uid="{6E4FF682-A814-6D46-913A-4FA0A465DAB9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>Threads</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Perfermance</t>
+  </si>
+  <si>
+    <t>Number of Thread</t>
   </si>
 </sst>
 </file>
@@ -159,6 +162,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performances</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -226,10 +254,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$51</c:f>
+              <c:f>Sheet2!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -275,109 +303,109 @@
                 <c:pt idx="14">
                   <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.09</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0.105</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>0.11</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0.115</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0.13</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>0.13500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0.14499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.155</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.16500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.17</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>0.17499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>0.185</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>0.19</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>0.19500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>0.20499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>0.21</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>0.215</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>0.22500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>0.23</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>0.23499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>0.24</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>0.245</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -385,10 +413,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$51</c:f>
+              <c:f>Sheet2!$C$2:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>139.69999999999999</c:v>
                 </c:pt>
@@ -434,109 +462,109 @@
                 <c:pt idx="14">
                   <c:v>67.8</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>68.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>69.7</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>67.5</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>68.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>67.7</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>67.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>67.5</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>68.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>67.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>71.2</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>68.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>69.8</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>67.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>68.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>70.2</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>67.3</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>67.8</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>68.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>67.3</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>67.8</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>67.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>68.3</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>68.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>67.5</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>68.3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>67.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>67.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>68.2</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>68.400000000000006</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>67.7</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>67.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -553,7 +581,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Thread = 2</c:v>
+            <c:v>Threads = 2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -581,7 +609,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$52:$B$101</c:f>
+              <c:f>Sheet2!$B$53:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -740,7 +768,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$52:$C$101</c:f>
+              <c:f>Sheet2!$C$53:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -901,6 +929,716 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A970-954A-9331-F1D323E167E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Threads  = 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$103:$B$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$103:$C$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>118.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>72.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>73.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>70.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FE1-CF4E-A351-A8E38B4AE9E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Threads = 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$153:$B$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$153:$C$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>122.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>68.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1FE1-CF4E-A351-A8E38B4AE9E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -937,6 +1675,34 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>cutoff value/array size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1714,13 +2480,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3728,15 +4494,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CE231E-A634-4E4B-B19B-329FEF2FA629}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="23" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
@@ -3919,14 +4685,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="C17" s="3">
-        <v>68.099999999999994</v>
+      <c r="A17" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3934,10 +4694,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C18" s="3">
-        <v>69.7</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3945,10 +4705,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C19" s="3">
-        <v>67.5</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3956,10 +4716,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="3">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C20" s="3">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3967,10 +4727,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C21" s="3">
-        <v>68</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3978,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="3">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="C22" s="3">
         <v>68</v>
@@ -3989,10 +4749,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="C23" s="3">
-        <v>67.7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4000,10 +4760,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="3">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="C24" s="3">
-        <v>67.900000000000006</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4011,10 +4771,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="3">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="C25" s="3">
-        <v>67.5</v>
+        <v>67.900000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4022,10 +4782,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="3">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="C26" s="3">
-        <v>68.099999999999994</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4033,10 +4793,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="3">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="C27" s="3">
-        <v>67.599999999999994</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4044,10 +4804,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="C28" s="3">
-        <v>71.2</v>
+        <v>67.599999999999994</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4055,10 +4815,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C29" s="3">
-        <v>68.099999999999994</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4066,10 +4826,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>0.14499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C30" s="3">
-        <v>69.8</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -4077,10 +4837,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="3">
-        <v>0.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="C31" s="3">
-        <v>67.599999999999994</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4088,10 +4848,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="3">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="C32" s="3">
-        <v>68.900000000000006</v>
+        <v>67.599999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4099,10 +4859,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="C33" s="3">
-        <v>70.2</v>
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -4110,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="3">
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="C34" s="3">
-        <v>67.3</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4121,10 +4881,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="3">
-        <v>0.17</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C35" s="3">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -4132,10 +4892,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="3">
-        <v>0.17499999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="C36" s="3">
-        <v>68.599999999999994</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4143,10 +4903,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="3">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C37" s="3">
-        <v>68</v>
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -4154,10 +4914,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="C38" s="3">
-        <v>67.3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4165,10 +4925,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="C39" s="3">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4176,10 +4936,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="3">
-        <v>0.19500000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="C40" s="3">
-        <v>67.599999999999994</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -4187,10 +4947,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="3">
-        <v>0.2</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="C41" s="3">
-        <v>68.3</v>
+        <v>67.599999999999994</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -4198,10 +4958,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="3">
-        <v>0.20499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C42" s="3">
-        <v>68.900000000000006</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -4209,10 +4969,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="3">
-        <v>0.21</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="C43" s="3">
-        <v>67.5</v>
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4220,10 +4980,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="3">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="C44" s="3">
-        <v>68.3</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -4231,10 +4991,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="3">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="C45" s="3">
-        <v>67.599999999999994</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -4242,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="3">
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="C46" s="3">
         <v>67.599999999999994</v>
@@ -4253,10 +5013,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="3">
-        <v>0.23</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C47" s="3">
-        <v>68.2</v>
+        <v>67.599999999999994</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -4264,10 +5024,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>0.23499999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="C48" s="3">
-        <v>68.400000000000006</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -4275,10 +5035,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <v>0.24</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="C49" s="3">
-        <v>68</v>
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -4286,32 +5046,32 @@
         <v>1</v>
       </c>
       <c r="B50" s="3">
-        <v>0.245</v>
+        <v>0.24</v>
       </c>
       <c r="C50" s="3">
-        <v>67.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1</v>
       </c>
       <c r="B51" s="3">
+        <v>0.245</v>
+      </c>
+      <c r="C51" s="3">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>1</v>
+      </c>
+      <c r="B52" s="3">
         <v>0.25</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C52" s="3">
         <v>67.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>2</v>
-      </c>
-      <c r="B52" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C52" s="3">
-        <v>132.69999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4319,10 +5079,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="3">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C53" s="3">
-        <v>97.2</v>
+        <v>132.69999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4330,10 +5090,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C54" s="3">
-        <v>95.8</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4341,10 +5101,10 @@
         <v>2</v>
       </c>
       <c r="B55" s="3">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C55" s="3">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4352,10 +5112,10 @@
         <v>2</v>
       </c>
       <c r="B56" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C56" s="3">
-        <v>97.9</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4363,10 +5123,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="3">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C57" s="3">
-        <v>94.5</v>
+        <v>97.9</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4374,10 +5134,10 @@
         <v>2</v>
       </c>
       <c r="B58" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C58" s="3">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4385,10 +5145,10 @@
         <v>2</v>
       </c>
       <c r="B59" s="3">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C59" s="3">
-        <v>95.6</v>
+        <v>94.6</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4396,10 +5156,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C60" s="3">
-        <v>94.1</v>
+        <v>95.6</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4407,10 +5167,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="3">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C61" s="3">
-        <v>94.3</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4418,10 +5178,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="3">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C62" s="3">
-        <v>100.2</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4429,10 +5189,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="3">
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C63" s="3">
-        <v>101.2</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4440,10 +5200,10 @@
         <v>2</v>
       </c>
       <c r="B64" s="3">
-        <v>6.5000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C64" s="3">
-        <v>99.3</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4451,10 +5211,10 @@
         <v>2</v>
       </c>
       <c r="B65" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C65" s="3">
-        <v>113.8</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4462,10 +5222,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="3">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C66" s="3">
-        <v>102.3</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4473,10 +5233,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="3">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C67" s="3">
-        <v>106.2</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4484,10 +5244,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="3">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C68" s="3">
-        <v>100.2</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4495,10 +5255,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="3">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C69" s="3">
-        <v>103.2</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4506,10 +5266,10 @@
         <v>2</v>
       </c>
       <c r="B70" s="3">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C70" s="3">
-        <v>110.6</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4517,10 +5277,10 @@
         <v>2</v>
       </c>
       <c r="B71" s="3">
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C71" s="3">
-        <v>101</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4528,10 +5288,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="3">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="C72" s="3">
-        <v>101.9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4539,10 +5299,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="3">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="C73" s="3">
-        <v>112.1</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4550,10 +5310,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="3">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="C74" s="3">
-        <v>98.5</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4561,10 +5321,10 @@
         <v>2</v>
       </c>
       <c r="B75" s="3">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="C75" s="3">
-        <v>112.8</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4572,10 +5332,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="3">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="C76" s="3">
-        <v>107.5</v>
+        <v>112.8</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4583,10 +5343,10 @@
         <v>2</v>
       </c>
       <c r="B77" s="3">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="C77" s="3">
-        <v>108.5</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4594,10 +5354,10 @@
         <v>2</v>
       </c>
       <c r="B78" s="3">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="C78" s="3">
-        <v>106.5</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4605,10 +5365,10 @@
         <v>2</v>
       </c>
       <c r="B79" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C79" s="3">
-        <v>98.6</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4616,10 +5376,10 @@
         <v>2</v>
       </c>
       <c r="B80" s="3">
-        <v>0.14499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C80" s="3">
-        <v>96.5</v>
+        <v>98.6</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4627,10 +5387,10 @@
         <v>2</v>
       </c>
       <c r="B81" s="3">
-        <v>0.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="C81" s="3">
-        <v>108.7</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4638,10 +5398,10 @@
         <v>2</v>
       </c>
       <c r="B82" s="3">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="C82" s="3">
-        <v>116.5</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4649,10 +5409,10 @@
         <v>2</v>
       </c>
       <c r="B83" s="3">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="C83" s="3">
-        <v>100</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4660,10 +5420,10 @@
         <v>2</v>
       </c>
       <c r="B84" s="3">
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="C84" s="3">
-        <v>98.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4671,7 +5431,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="3">
-        <v>0.17</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C85" s="3">
         <v>98.1</v>
@@ -4682,10 +5442,10 @@
         <v>2</v>
       </c>
       <c r="B86" s="3">
-        <v>0.17499999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="C86" s="3">
-        <v>98.4</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4693,10 +5453,10 @@
         <v>2</v>
       </c>
       <c r="B87" s="3">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C87" s="3">
-        <v>96.2</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4704,10 +5464,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="3">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="C88" s="3">
-        <v>102.3</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4715,10 +5475,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="3">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="C89" s="3">
-        <v>95.9</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4726,10 +5486,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="3">
-        <v>0.19500000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="C90" s="3">
-        <v>96.3</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4737,10 +5497,10 @@
         <v>2</v>
       </c>
       <c r="B91" s="3">
-        <v>0.2</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="C91" s="3">
-        <v>99.9</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4748,10 +5508,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="3">
-        <v>0.20499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C92" s="3">
-        <v>96.6</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4759,10 +5519,10 @@
         <v>2</v>
       </c>
       <c r="B93" s="3">
-        <v>0.21</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="C93" s="3">
-        <v>95.9</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4770,10 +5530,10 @@
         <v>2</v>
       </c>
       <c r="B94" s="3">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="C94" s="3">
-        <v>95.7</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4781,10 +5541,10 @@
         <v>2</v>
       </c>
       <c r="B95" s="3">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="C95" s="3">
-        <v>96.1</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4792,10 +5552,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="3">
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="C96" s="3">
-        <v>99.7</v>
+        <v>96.1</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4803,10 +5563,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="3">
-        <v>0.23</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C97" s="3">
-        <v>97.2</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4814,10 +5574,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="3">
-        <v>0.23499999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="C98" s="3">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4825,10 +5585,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="3">
-        <v>0.24</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="C99" s="3">
-        <v>97.7</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4836,10 +5596,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="3">
-        <v>0.245</v>
+        <v>0.24</v>
       </c>
       <c r="C100" s="3">
-        <v>96.3</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4847,21 +5607,21 @@
         <v>2</v>
       </c>
       <c r="B101" s="3">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="C101" s="3">
-        <v>101.8</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>4</v>
-      </c>
-      <c r="B102" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C102" s="5">
-        <v>118.2</v>
+        <v>2</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C102" s="3">
+        <v>101.8</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4869,10 +5629,10 @@
         <v>4</v>
       </c>
       <c r="B103" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="C103" s="6">
-        <v>78.2</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C103" s="5">
+        <v>118.2</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4880,10 +5640,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C104" s="6">
-        <v>77.5</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4891,10 +5651,10 @@
         <v>4</v>
       </c>
       <c r="B105" s="5">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C105" s="6">
-        <v>70.8</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4902,10 +5662,10 @@
         <v>4</v>
       </c>
       <c r="B106" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C106" s="6">
-        <v>77.5</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4913,10 +5673,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="5">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C107" s="6">
-        <v>74.7</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4924,10 +5684,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C108" s="6">
-        <v>72</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4935,10 +5695,10 @@
         <v>4</v>
       </c>
       <c r="B109" s="5">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C109" s="6">
-        <v>73.2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4946,10 +5706,10 @@
         <v>4</v>
       </c>
       <c r="B110" s="5">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C110" s="6">
-        <v>75.099999999999994</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4957,10 +5717,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="5">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C111" s="6">
-        <v>70.900000000000006</v>
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="112" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4968,10 +5728,10 @@
         <v>4</v>
       </c>
       <c r="B112" s="5">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C112" s="6">
-        <v>71</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4979,10 +5739,10 @@
         <v>4</v>
       </c>
       <c r="B113" s="5">
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C113" s="6">
-        <v>72.3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4990,10 +5750,10 @@
         <v>4</v>
       </c>
       <c r="B114" s="5">
-        <v>6.5000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C114" s="6">
-        <v>76.2</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5001,10 +5761,10 @@
         <v>4</v>
       </c>
       <c r="B115" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C115" s="6">
-        <v>80.099999999999994</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5012,10 +5772,10 @@
         <v>4</v>
       </c>
       <c r="B116" s="5">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C116" s="6">
-        <v>70.8</v>
+        <v>80.099999999999994</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5023,10 +5783,10 @@
         <v>4</v>
       </c>
       <c r="B117" s="5">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C117" s="6">
-        <v>71.900000000000006</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5034,10 +5794,10 @@
         <v>4</v>
       </c>
       <c r="B118" s="5">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C118" s="6">
-        <v>71.2</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5045,10 +5805,10 @@
         <v>4</v>
       </c>
       <c r="B119" s="5">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C119" s="6">
-        <v>71.7</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="120" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5056,10 +5816,10 @@
         <v>4</v>
       </c>
       <c r="B120" s="5">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C120" s="6">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="121" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5067,10 +5827,10 @@
         <v>4</v>
       </c>
       <c r="B121" s="5">
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C121" s="6">
-        <v>73.2</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="122" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5078,10 +5838,10 @@
         <v>4</v>
       </c>
       <c r="B122" s="5">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="C122" s="6">
-        <v>69.599999999999994</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="123" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5089,10 +5849,10 @@
         <v>4</v>
       </c>
       <c r="B123" s="5">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="C123" s="6">
-        <v>70.599999999999994</v>
+        <v>69.599999999999994</v>
       </c>
     </row>
     <row r="124" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5100,10 +5860,10 @@
         <v>4</v>
       </c>
       <c r="B124" s="5">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="C124" s="6">
-        <v>71.5</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="125" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5111,10 +5871,10 @@
         <v>4</v>
       </c>
       <c r="B125" s="5">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="C125" s="6">
-        <v>71.7</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="126" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5122,10 +5882,10 @@
         <v>4</v>
       </c>
       <c r="B126" s="5">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="C126" s="6">
-        <v>70.7</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="127" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5133,10 +5893,10 @@
         <v>4</v>
       </c>
       <c r="B127" s="5">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="C127" s="6">
-        <v>74</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="128" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5144,10 +5904,10 @@
         <v>4</v>
       </c>
       <c r="B128" s="5">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="C128" s="6">
-        <v>74.2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5155,10 +5915,10 @@
         <v>4</v>
       </c>
       <c r="B129" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C129" s="6">
-        <v>70.3</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5166,10 +5926,10 @@
         <v>4</v>
       </c>
       <c r="B130" s="5">
-        <v>0.14499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C130" s="6">
-        <v>72</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="131" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5177,10 +5937,10 @@
         <v>4</v>
       </c>
       <c r="B131" s="5">
-        <v>0.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="C131" s="6">
-        <v>71.2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5188,10 +5948,10 @@
         <v>4</v>
       </c>
       <c r="B132" s="5">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="C132" s="6">
-        <v>69.7</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="133" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5199,10 +5959,10 @@
         <v>4</v>
       </c>
       <c r="B133" s="5">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="C133" s="6">
-        <v>71.400000000000006</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="134" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5210,10 +5970,10 @@
         <v>4</v>
       </c>
       <c r="B134" s="5">
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="C134" s="6">
-        <v>73.5</v>
+        <v>71.400000000000006</v>
       </c>
     </row>
     <row r="135" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5221,10 +5981,10 @@
         <v>4</v>
       </c>
       <c r="B135" s="5">
-        <v>0.17</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C135" s="6">
-        <v>74.7</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="136" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5232,10 +5992,10 @@
         <v>4</v>
       </c>
       <c r="B136" s="5">
-        <v>0.17499999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="C136" s="6">
-        <v>69.599999999999994</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="137" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5243,10 +6003,10 @@
         <v>4</v>
       </c>
       <c r="B137" s="5">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C137" s="6">
-        <v>70</v>
+        <v>69.599999999999994</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5254,10 +6014,10 @@
         <v>4</v>
       </c>
       <c r="B138" s="5">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="C138" s="6">
-        <v>70.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5265,10 +6025,10 @@
         <v>4</v>
       </c>
       <c r="B139" s="5">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="C139" s="6">
-        <v>70.599999999999994</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="140" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5276,10 +6036,10 @@
         <v>4</v>
       </c>
       <c r="B140" s="5">
-        <v>0.19500000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="C140" s="6">
-        <v>70.5</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="141" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5287,10 +6047,10 @@
         <v>4</v>
       </c>
       <c r="B141" s="5">
-        <v>0.2</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="C141" s="6">
-        <v>71.599999999999994</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="142" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5298,7 +6058,7 @@
         <v>4</v>
       </c>
       <c r="B142" s="5">
-        <v>0.20499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C142" s="6">
         <v>71.599999999999994</v>
@@ -5309,10 +6069,10 @@
         <v>4</v>
       </c>
       <c r="B143" s="5">
-        <v>0.21</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="C143" s="6">
-        <v>76.7</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="144" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5320,10 +6080,10 @@
         <v>4</v>
       </c>
       <c r="B144" s="5">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="C144" s="6">
-        <v>73.3</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5331,10 +6091,10 @@
         <v>4</v>
       </c>
       <c r="B145" s="5">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="C145" s="6">
-        <v>72.099999999999994</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5342,10 +6102,10 @@
         <v>4</v>
       </c>
       <c r="B146" s="5">
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="C146" s="6">
-        <v>72</v>
+        <v>72.099999999999994</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5353,10 +6113,10 @@
         <v>4</v>
       </c>
       <c r="B147" s="5">
-        <v>0.23</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C147" s="6">
-        <v>70.900000000000006</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5364,10 +6124,10 @@
         <v>4</v>
       </c>
       <c r="B148" s="5">
-        <v>0.23499999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="C148" s="6">
-        <v>71.3</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="149" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5375,10 +6135,10 @@
         <v>4</v>
       </c>
       <c r="B149" s="5">
-        <v>0.24</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="C149" s="6">
-        <v>73.7</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5386,10 +6146,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="5">
-        <v>0.245</v>
+        <v>0.24</v>
       </c>
       <c r="C150" s="6">
-        <v>69.900000000000006</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="151" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5397,21 +6157,21 @@
         <v>4</v>
       </c>
       <c r="B151" s="5">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="C151" s="6">
-        <v>70.2</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="152" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>8</v>
-      </c>
-      <c r="B152" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C152" s="8">
-        <v>122.1</v>
+        <v>4</v>
+      </c>
+      <c r="B152" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C152" s="6">
+        <v>70.2</v>
       </c>
     </row>
     <row r="153" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5419,10 +6179,10 @@
         <v>8</v>
       </c>
       <c r="B153" s="8">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C153" s="8">
-        <v>79.7</v>
+        <v>122.1</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5430,10 +6190,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C154" s="8">
-        <v>72.2</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5441,10 +6201,10 @@
         <v>8</v>
       </c>
       <c r="B155" s="8">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C155" s="8">
-        <v>69.900000000000006</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5452,10 +6212,10 @@
         <v>8</v>
       </c>
       <c r="B156" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C156" s="8">
-        <v>69.2</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5463,10 +6223,10 @@
         <v>8</v>
       </c>
       <c r="B157" s="8">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C157" s="8">
-        <v>72.599999999999994</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="158" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5474,10 +6234,10 @@
         <v>8</v>
       </c>
       <c r="B158" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C158" s="8">
-        <v>68.5</v>
+        <v>72.599999999999994</v>
       </c>
     </row>
     <row r="159" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5485,10 +6245,10 @@
         <v>8</v>
       </c>
       <c r="B159" s="8">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C159" s="8">
-        <v>69.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="160" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5496,10 +6256,10 @@
         <v>8</v>
       </c>
       <c r="B160" s="8">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C160" s="8">
-        <v>71</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="161" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5507,10 +6267,10 @@
         <v>8</v>
       </c>
       <c r="B161" s="8">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C161" s="8">
-        <v>70.3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="162" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5518,10 +6278,10 @@
         <v>8</v>
       </c>
       <c r="B162" s="8">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C162" s="8">
-        <v>70.599999999999994</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="163" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5529,10 +6289,10 @@
         <v>8</v>
       </c>
       <c r="B163" s="8">
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C163" s="8">
-        <v>71.8</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="164" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5540,10 +6300,10 @@
         <v>8</v>
       </c>
       <c r="B164" s="8">
-        <v>6.5000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C164" s="8">
-        <v>70.3</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="165" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5551,10 +6311,10 @@
         <v>8</v>
       </c>
       <c r="B165" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C165" s="8">
-        <v>70.400000000000006</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="166" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5562,10 +6322,10 @@
         <v>8</v>
       </c>
       <c r="B166" s="8">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C166" s="8">
-        <v>70.2</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="167" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5573,10 +6333,10 @@
         <v>8</v>
       </c>
       <c r="B167" s="8">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C167" s="8">
-        <v>68.7</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="168" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5584,10 +6344,10 @@
         <v>8</v>
       </c>
       <c r="B168" s="8">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C168" s="8">
-        <v>69.900000000000006</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="169" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5595,10 +6355,10 @@
         <v>8</v>
       </c>
       <c r="B169" s="8">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C169" s="8">
-        <v>70.400000000000006</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="170" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5606,10 +6366,10 @@
         <v>8</v>
       </c>
       <c r="B170" s="8">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C170" s="8">
-        <v>69.5</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="171" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5617,10 +6377,10 @@
         <v>8</v>
       </c>
       <c r="B171" s="8">
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C171" s="8">
-        <v>69.3</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="172" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5628,10 +6388,10 @@
         <v>8</v>
       </c>
       <c r="B172" s="8">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="C172" s="8">
-        <v>70.400000000000006</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="173" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5639,10 +6399,10 @@
         <v>8</v>
       </c>
       <c r="B173" s="8">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="C173" s="8">
-        <v>70.3</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5650,10 +6410,10 @@
         <v>8</v>
       </c>
       <c r="B174" s="8">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="C174" s="8">
-        <v>69.8</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="175" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5661,10 +6421,10 @@
         <v>8</v>
       </c>
       <c r="B175" s="8">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="C175" s="8">
-        <v>70</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="176" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5672,10 +6432,10 @@
         <v>8</v>
       </c>
       <c r="B176" s="8">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="C176" s="8">
-        <v>69.8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="177" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5683,10 +6443,10 @@
         <v>8</v>
       </c>
       <c r="B177" s="8">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="C177" s="8">
-        <v>71.900000000000006</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="178" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5694,10 +6454,10 @@
         <v>8</v>
       </c>
       <c r="B178" s="8">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="C178" s="8">
-        <v>71.5</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="179" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5705,10 +6465,10 @@
         <v>8</v>
       </c>
       <c r="B179" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C179" s="8">
-        <v>68.400000000000006</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="180" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5716,10 +6476,10 @@
         <v>8</v>
       </c>
       <c r="B180" s="8">
-        <v>0.14499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C180" s="8">
-        <v>71</v>
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="181" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5727,10 +6487,10 @@
         <v>8</v>
       </c>
       <c r="B181" s="8">
-        <v>0.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="C181" s="8">
-        <v>68.900000000000006</v>
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5738,10 +6498,10 @@
         <v>8</v>
       </c>
       <c r="B182" s="8">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="C182" s="8">
-        <v>67.599999999999994</v>
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="183" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5749,10 +6509,10 @@
         <v>8</v>
       </c>
       <c r="B183" s="8">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="C183" s="8">
-        <v>68</v>
+        <v>67.599999999999994</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5760,10 +6520,10 @@
         <v>8</v>
       </c>
       <c r="B184" s="8">
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="C184" s="8">
-        <v>68.8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5771,10 +6531,10 @@
         <v>8</v>
       </c>
       <c r="B185" s="8">
-        <v>0.17</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C185" s="8">
-        <v>74.3</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5782,10 +6542,10 @@
         <v>8</v>
       </c>
       <c r="B186" s="8">
-        <v>0.17499999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="C186" s="8">
-        <v>76.8</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="187" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5793,10 +6553,10 @@
         <v>8</v>
       </c>
       <c r="B187" s="8">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C187" s="8">
-        <v>71.099999999999994</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5804,10 +6564,10 @@
         <v>8</v>
       </c>
       <c r="B188" s="8">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="C188" s="8">
-        <v>69.8</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="189" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5815,10 +6575,10 @@
         <v>8</v>
       </c>
       <c r="B189" s="8">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="C189" s="8">
-        <v>68.900000000000006</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5826,10 +6586,10 @@
         <v>8</v>
       </c>
       <c r="B190" s="8">
-        <v>0.19500000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="C190" s="8">
-        <v>69.900000000000006</v>
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5837,10 +6597,10 @@
         <v>8</v>
       </c>
       <c r="B191" s="8">
-        <v>0.2</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="C191" s="8">
-        <v>70.8</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5848,10 +6608,10 @@
         <v>8</v>
       </c>
       <c r="B192" s="8">
-        <v>0.20499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C192" s="8">
-        <v>69.400000000000006</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="193" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5859,10 +6619,10 @@
         <v>8</v>
       </c>
       <c r="B193" s="8">
-        <v>0.21</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="C193" s="8">
-        <v>69.2</v>
+        <v>69.400000000000006</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5870,10 +6630,10 @@
         <v>8</v>
       </c>
       <c r="B194" s="8">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="C194" s="8">
-        <v>68.2</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5881,10 +6641,10 @@
         <v>8</v>
       </c>
       <c r="B195" s="8">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="C195" s="8">
-        <v>69.099999999999994</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="196" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5892,10 +6652,10 @@
         <v>8</v>
       </c>
       <c r="B196" s="8">
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="C196" s="8">
-        <v>70.3</v>
+        <v>69.099999999999994</v>
       </c>
     </row>
     <row r="197" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5903,10 +6663,10 @@
         <v>8</v>
       </c>
       <c r="B197" s="8">
-        <v>0.23</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C197" s="8">
-        <v>69.2</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="198" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5914,10 +6674,10 @@
         <v>8</v>
       </c>
       <c r="B198" s="8">
-        <v>0.23499999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="C198" s="8">
-        <v>69.099999999999994</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="199" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5925,10 +6685,10 @@
         <v>8</v>
       </c>
       <c r="B199" s="8">
-        <v>0.24</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="C199" s="8">
-        <v>69.2</v>
+        <v>69.099999999999994</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5936,20 +6696,31 @@
         <v>8</v>
       </c>
       <c r="B200" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="C200" s="8">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>8</v>
+      </c>
+      <c r="B201" s="8">
         <v>0.245</v>
       </c>
-      <c r="C200" s="8">
+      <c r="C201" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
-        <v>8</v>
-      </c>
-      <c r="B201" s="8">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>8</v>
+      </c>
+      <c r="B202" s="8">
         <v>0.25</v>
       </c>
-      <c r="C201" s="8">
+      <c r="C202" s="8">
         <v>68.599999999999994</v>
       </c>
     </row>
